--- a/Datos/ESCOLARIDAD.xlsx
+++ b/Datos/ESCOLARIDAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\OneDrive\Documentos\GitHub\ProyectoFinal_IC\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7668F3EE-D338-4110-B182-837B3B3537E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5772F29-5AF4-4E14-B73B-7587236B8541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>NO ESPECIFICADO</t>
   </si>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,6 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,7 +225,21 @@
       <alignment horizontal="general" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -261,20 +276,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -289,14 +290,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9849F99-9963-4775-A88D-2DF69510586E}" name="Tabla1" displayName="Tabla1" ref="A1:B29" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:B29" xr:uid="{A9849F99-9963-4775-A88D-2DF69510586E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
-    <sortCondition ref="A1:A29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9849F99-9963-4775-A88D-2DF69510586E}" name="Tabla1" displayName="Tabla1" ref="A1:B32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+  <autoFilter ref="A1:B32" xr:uid="{A9849F99-9963-4775-A88D-2DF69510586E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+    <sortCondition ref="A1:A32"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{17DC4206-D664-4A95-BA33-1C8F0A3ED5F6}" name="Clave" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{91E3A8D9-857A-4F9A-9C71-3305A320DA81}" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{17DC4206-D664-4A95-BA33-1C8F0A3ED5F6}" name="Clave" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{91E3A8D9-857A-4F9A-9C71-3305A320DA81}" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="80.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,209 +604,233 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>102</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>15</v>
+      <c r="A25" s="10">
+        <v>88</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
+        <v>111</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>112</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>131</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>132</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Datos/ESCOLARIDAD.xlsx
+++ b/Datos/ESCOLARIDAD.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\OneDrive\Documentos\GitHub\ProyectoFinal_IC\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5772F29-5AF4-4E14-B73B-7587236B8541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65AC97-4E94-4DAA-8F2F-4D1A63321565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Escolaridad_sonora" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>NO ESPECIFICADO</t>
   </si>
@@ -290,10 +290,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9849F99-9963-4775-A88D-2DF69510586E}" name="Tabla1" displayName="Tabla1" ref="A1:B32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
-  <autoFilter ref="A1:B32" xr:uid="{A9849F99-9963-4775-A88D-2DF69510586E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
-    <sortCondition ref="A1:A32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9849F99-9963-4775-A88D-2DF69510586E}" name="Tabla1" displayName="Tabla1" ref="A1:B30" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+  <autoFilter ref="A1:B30" xr:uid="{A9849F99-9963-4775-A88D-2DF69510586E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+    <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{17DC4206-D664-4A95-BA33-1C8F0A3ED5F6}" name="Clave" dataDxfId="1"/>
@@ -566,15 +566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="80.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,233 +604,217 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>51</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>71</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>51</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>82</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>13</v>
+      <c r="A23" s="10">
+        <v>88</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>88</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>0</v>
+      <c r="A25" s="9">
+        <v>101</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>131</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>132</v>
-      </c>
-      <c r="B32" s="9" t="s">
         <v>19</v>
       </c>
     </row>
